--- a/CUDA_Mat_Multi/CUDA Times.xlsx
+++ b/CUDA_Mat_Multi/CUDA Times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Global</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>CUDA</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -225,18 +228,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.2100000000000001E-4</c:v>
+                  <c:v>2.1499999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8900000000000002E-4</c:v>
+                  <c:v>4.0400000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1199999999999996E-4</c:v>
+                  <c:v>7.3099999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -253,7 +256,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -306,18 +309,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.1E-5</c:v>
+                  <c:v>4.6E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8999999999999995E-5</c:v>
+                  <c:v>9.0000000000000006E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.32E-4</c:v>
+                  <c:v>2.2900000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,6 +329,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3069-46F8-89CB-7C3F55A32052}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8379999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1210000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B63C-4888-B020-571F35D2E9EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -339,6 +423,684 @@
         </c:dLbls>
         <c:axId val="547827752"/>
         <c:axId val="547824800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="547827752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Elements</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547824800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="547824800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="547827752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Global vs. Shared Memory CUDA</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Matrix Multiplcation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Global</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.1499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3099999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E681-40C7-855B-B369CFD8240D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shared</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.6E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0000000000000006E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2900000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E681-40C7-855B-B369CFD8240D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="547827752"/>
+        <c:axId val="547824800"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>512</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1024</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2048</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>8.4800000000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.8379999999999998E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.1210000000000006E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E681-40C7-855B-B369CFD8240D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="547827752"/>
@@ -700,7 +1462,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1222,13 +2540,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1249,6 +2567,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0131A8-18C4-4674-936C-968C2F760EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1554,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,30 +2939,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2.2100000000000001E-4</v>
+        <v>8.4800000000000001E-4</v>
       </c>
       <c r="C2">
-        <v>3.8900000000000002E-4</v>
+        <v>2.8379999999999998E-3</v>
       </c>
       <c r="D2">
-        <v>7.1199999999999996E-4</v>
+        <v>9.1210000000000006E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.1499999999999999E-4</v>
+      </c>
+      <c r="C3">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>7.3099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>5.1E-5</v>
+      <c r="B4">
+        <v>4.6E-5</v>
       </c>
-      <c r="C3">
-        <v>8.8999999999999995E-5</v>
+      <c r="C4">
+        <v>9.0000000000000006E-5</v>
       </c>
-      <c r="D3">
-        <v>2.32E-4</v>
+      <c r="D4">
+        <v>2.2900000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/CUDA_Mat_Multi/CUDA Times.xlsx
+++ b/CUDA_Mat_Multi/CUDA Times.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>Global</t>
   </si>
@@ -2910,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2923,7 @@
     <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2936,8 +2936,20 @@
       <c r="D1">
         <v>2048</v>
       </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>512</v>
+      </c>
+      <c r="H1">
+        <v>1024</v>
+      </c>
+      <c r="I1">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2950,8 +2962,23 @@
       <c r="D2">
         <v>9.1210000000000006E-3</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>B2/B3</f>
+        <v>3.9441860465116281</v>
+      </c>
+      <c r="H2">
+        <f>C2/C3</f>
+        <v>7.0247524752475243</v>
+      </c>
+      <c r="I2">
+        <f>D2/D3</f>
+        <v>12.477428180574556</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2964,8 +2991,23 @@
       <c r="D3">
         <v>7.3099999999999999E-4</v>
       </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>B2/B4</f>
+        <v>18.434782608695652</v>
+      </c>
+      <c r="H3">
+        <f>C2/C4</f>
+        <v>31.533333333333328</v>
+      </c>
+      <c r="I3">
+        <f>D2/D4</f>
+        <v>39.829694323144103</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
